--- a/natmiOut/OldD7/LR-pairs_lrc2p/Egf-Erbb3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Egf-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.109760645503512</v>
+        <v>0.1243246666666667</v>
       </c>
       <c r="H2">
-        <v>0.109760645503512</v>
+        <v>0.372974</v>
       </c>
       <c r="I2">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726231</v>
       </c>
       <c r="J2">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726233</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.212365025418565</v>
+        <v>0.1680563333333333</v>
       </c>
       <c r="N2">
-        <v>0.212365025418565</v>
+        <v>0.504169</v>
       </c>
       <c r="O2">
-        <v>0.05747578409345984</v>
+        <v>0.03491515448966758</v>
       </c>
       <c r="P2">
-        <v>0.05747578409345984</v>
+        <v>0.03491515448966757</v>
       </c>
       <c r="Q2">
-        <v>0.02330932227231143</v>
+        <v>0.02089354762288889</v>
       </c>
       <c r="R2">
-        <v>0.02330932227231143</v>
+        <v>0.188041928606</v>
       </c>
       <c r="S2">
-        <v>0.00588589242127156</v>
+        <v>0.003478626844302247</v>
       </c>
       <c r="T2">
-        <v>0.00588589242127156</v>
+        <v>0.003478626844302247</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.109760645503512</v>
+        <v>0.1243246666666667</v>
       </c>
       <c r="H3">
-        <v>0.109760645503512</v>
+        <v>0.372974</v>
       </c>
       <c r="I3">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726231</v>
       </c>
       <c r="J3">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726233</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.33511318572785</v>
+        <v>0.3027816666666667</v>
       </c>
       <c r="N3">
-        <v>0.33511318572785</v>
+        <v>0.908345</v>
       </c>
       <c r="O3">
-        <v>0.09069710547583237</v>
+        <v>0.06290550590162643</v>
       </c>
       <c r="P3">
-        <v>0.09069710547583237</v>
+        <v>0.06290550590162643</v>
       </c>
       <c r="Q3">
-        <v>0.03678223958222712</v>
+        <v>0.03764322978111111</v>
       </c>
       <c r="R3">
-        <v>0.03678223958222712</v>
+        <v>0.33878906803</v>
       </c>
       <c r="S3">
-        <v>0.009287970824085093</v>
+        <v>0.006267329607508047</v>
       </c>
       <c r="T3">
-        <v>0.009287970824085093</v>
+        <v>0.006267329607508048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.109760645503512</v>
+        <v>0.1243246666666667</v>
       </c>
       <c r="H4">
-        <v>0.109760645503512</v>
+        <v>0.372974</v>
       </c>
       <c r="I4">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726231</v>
       </c>
       <c r="J4">
-        <v>0.1024064745545823</v>
+        <v>0.09963085929726233</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.14738265535771</v>
+        <v>0.3920839999999999</v>
       </c>
       <c r="N4">
-        <v>3.14738265535771</v>
+        <v>1.176252</v>
       </c>
       <c r="O4">
-        <v>0.8518271104307078</v>
+        <v>0.08145883681618755</v>
       </c>
       <c r="P4">
-        <v>0.8518271104307078</v>
+        <v>0.08145883681618755</v>
       </c>
       <c r="Q4">
-        <v>0.3454587518986199</v>
+        <v>0.04874571260533333</v>
       </c>
       <c r="R4">
-        <v>0.3454587518986199</v>
+        <v>0.438711413448</v>
       </c>
       <c r="S4">
-        <v>0.08723261130922563</v>
+        <v>0.008115813909352234</v>
       </c>
       <c r="T4">
-        <v>0.08723261130922563</v>
+        <v>0.008115813909352235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.707258862514483</v>
+        <v>0.1243246666666667</v>
       </c>
       <c r="H5">
-        <v>0.707258862514483</v>
+        <v>0.372974</v>
       </c>
       <c r="I5">
-        <v>0.6598711803792621</v>
+        <v>0.09963085929726231</v>
       </c>
       <c r="J5">
-        <v>0.6598711803792621</v>
+        <v>0.09963085929726233</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.212365025418565</v>
+        <v>3.950355666666666</v>
       </c>
       <c r="N5">
-        <v>0.212365025418565</v>
+        <v>11.851067</v>
       </c>
       <c r="O5">
-        <v>0.05747578409345984</v>
+        <v>0.8207205027925185</v>
       </c>
       <c r="P5">
-        <v>0.05747578409345984</v>
+        <v>0.8207205027925184</v>
       </c>
       <c r="Q5">
-        <v>0.1501970463153935</v>
+        <v>0.4911266514731111</v>
       </c>
       <c r="R5">
-        <v>0.1501970463153935</v>
+        <v>4.420139863258</v>
       </c>
       <c r="S5">
-        <v>0.03792661349297496</v>
+        <v>0.0817690889360998</v>
       </c>
       <c r="T5">
-        <v>0.03792661349297496</v>
+        <v>0.0817690889360998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.707258862514483</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H6">
-        <v>0.707258862514483</v>
+        <v>2.198467</v>
       </c>
       <c r="I6">
-        <v>0.6598711803792621</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="J6">
-        <v>0.6598711803792621</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.33511318572785</v>
+        <v>0.1680563333333333</v>
       </c>
       <c r="N6">
-        <v>0.33511318572785</v>
+        <v>0.504169</v>
       </c>
       <c r="O6">
-        <v>0.09069710547583237</v>
+        <v>0.03491515448966758</v>
       </c>
       <c r="P6">
-        <v>0.09069710547583237</v>
+        <v>0.03491515448966757</v>
       </c>
       <c r="Q6">
-        <v>0.2370117705514839</v>
+        <v>0.1231554343247778</v>
       </c>
       <c r="R6">
-        <v>0.2370117705514839</v>
+        <v>1.108398908923</v>
       </c>
       <c r="S6">
-        <v>0.05984840604731994</v>
+        <v>0.0205045025189762</v>
       </c>
       <c r="T6">
-        <v>0.05984840604731994</v>
+        <v>0.02050450251897619</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.707258862514483</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H7">
-        <v>0.707258862514483</v>
+        <v>2.198467</v>
       </c>
       <c r="I7">
-        <v>0.6598711803792621</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="J7">
-        <v>0.6598711803792621</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.14738265535771</v>
+        <v>0.3027816666666667</v>
       </c>
       <c r="N7">
-        <v>3.14738265535771</v>
+        <v>0.908345</v>
       </c>
       <c r="O7">
-        <v>0.8518271104307078</v>
+        <v>0.06290550590162643</v>
       </c>
       <c r="P7">
-        <v>0.8518271104307078</v>
+        <v>0.06290550590162643</v>
       </c>
       <c r="Q7">
-        <v>2.226014276726107</v>
+        <v>0.2218851674572222</v>
       </c>
       <c r="R7">
-        <v>2.226014276726107</v>
+        <v>1.996966507115</v>
       </c>
       <c r="S7">
-        <v>0.5620961608389672</v>
+        <v>0.03694229978558664</v>
       </c>
       <c r="T7">
-        <v>0.5620961608389672</v>
+        <v>0.03694229978558664</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0867081542085182</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H8">
-        <v>0.0867081542085182</v>
+        <v>2.198467</v>
       </c>
       <c r="I8">
-        <v>0.08089854379860857</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="J8">
-        <v>0.08089854379860857</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.212365025418565</v>
+        <v>0.3920839999999999</v>
       </c>
       <c r="N8">
-        <v>0.212365025418565</v>
+        <v>1.176252</v>
       </c>
       <c r="O8">
-        <v>0.05747578409345984</v>
+        <v>0.08145883681618755</v>
       </c>
       <c r="P8">
-        <v>0.05747578409345984</v>
+        <v>0.08145883681618755</v>
       </c>
       <c r="Q8">
-        <v>0.01841377937248882</v>
+        <v>0.2873279117426666</v>
       </c>
       <c r="R8">
-        <v>0.01841377937248882</v>
+        <v>2.585951205684</v>
       </c>
       <c r="S8">
-        <v>0.004649707236844131</v>
+        <v>0.04783805052859415</v>
       </c>
       <c r="T8">
-        <v>0.004649707236844131</v>
+        <v>0.04783805052859415</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0867081542085182</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H9">
-        <v>0.0867081542085182</v>
+        <v>2.198467</v>
       </c>
       <c r="I9">
-        <v>0.08089854379860857</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="J9">
-        <v>0.08089854379860857</v>
+        <v>0.5872665557027417</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.33511318572785</v>
+        <v>3.950355666666666</v>
       </c>
       <c r="N9">
-        <v>0.33511318572785</v>
+        <v>11.851067</v>
       </c>
       <c r="O9">
-        <v>0.09069710547583237</v>
+        <v>0.8207205027925185</v>
       </c>
       <c r="P9">
-        <v>0.09069710547583237</v>
+        <v>0.8207205027925184</v>
       </c>
       <c r="Q9">
-        <v>0.02905704578539822</v>
+        <v>2.894908857143222</v>
       </c>
       <c r="R9">
-        <v>0.02905704578539822</v>
+        <v>26.054179714289</v>
       </c>
       <c r="S9">
-        <v>0.007337263759743647</v>
+        <v>0.4819817028695847</v>
       </c>
       <c r="T9">
-        <v>0.007337263759743647</v>
+        <v>0.4819817028695846</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0867081542085182</v>
+        <v>0.2213483333333333</v>
       </c>
       <c r="H10">
-        <v>0.0867081542085182</v>
+        <v>0.664045</v>
       </c>
       <c r="I10">
-        <v>0.08089854379860857</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="J10">
-        <v>0.08089854379860857</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.14738265535771</v>
+        <v>0.1680563333333333</v>
       </c>
       <c r="N10">
-        <v>3.14738265535771</v>
+        <v>0.504169</v>
       </c>
       <c r="O10">
-        <v>0.8518271104307078</v>
+        <v>0.03491515448966758</v>
       </c>
       <c r="P10">
-        <v>0.8518271104307078</v>
+        <v>0.03491515448966757</v>
       </c>
       <c r="Q10">
-        <v>0.2729037406339718</v>
+        <v>0.03719898928944445</v>
       </c>
       <c r="R10">
-        <v>0.2729037406339718</v>
+        <v>0.334790903605</v>
       </c>
       <c r="S10">
-        <v>0.0689115728020208</v>
+        <v>0.006193366730186785</v>
       </c>
       <c r="T10">
-        <v>0.0689115728020208</v>
+        <v>0.006193366730186784</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.168085872815258</v>
+        <v>0.2213483333333333</v>
       </c>
       <c r="H11">
-        <v>0.168085872815258</v>
+        <v>0.664045</v>
       </c>
       <c r="I11">
-        <v>0.1568238012675472</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="J11">
-        <v>0.1568238012675472</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.212365025418565</v>
+        <v>0.3027816666666667</v>
       </c>
       <c r="N11">
-        <v>0.212365025418565</v>
+        <v>0.908345</v>
       </c>
       <c r="O11">
-        <v>0.05747578409345984</v>
+        <v>0.06290550590162643</v>
       </c>
       <c r="P11">
-        <v>0.05747578409345984</v>
+        <v>0.06290550590162643</v>
       </c>
       <c r="Q11">
-        <v>0.03569556065291395</v>
+        <v>0.06702021728055556</v>
       </c>
       <c r="R11">
-        <v>0.03569556065291395</v>
+        <v>0.603181955525</v>
       </c>
       <c r="S11">
-        <v>0.009013570942369199</v>
+        <v>0.0111583887595856</v>
       </c>
       <c r="T11">
-        <v>0.009013570942369199</v>
+        <v>0.0111583887595856</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.168085872815258</v>
+        <v>0.2213483333333333</v>
       </c>
       <c r="H12">
-        <v>0.168085872815258</v>
+        <v>0.664045</v>
       </c>
       <c r="I12">
-        <v>0.1568238012675472</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="J12">
-        <v>0.1568238012675472</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.33511318572785</v>
+        <v>0.3920839999999999</v>
       </c>
       <c r="N12">
-        <v>0.33511318572785</v>
+        <v>1.176252</v>
       </c>
       <c r="O12">
-        <v>0.09069710547583237</v>
+        <v>0.08145883681618755</v>
       </c>
       <c r="P12">
-        <v>0.09069710547583237</v>
+        <v>0.08145883681618755</v>
       </c>
       <c r="Q12">
-        <v>0.05632779231496732</v>
+        <v>0.08678713992666666</v>
       </c>
       <c r="R12">
-        <v>0.05632779231496732</v>
+        <v>0.7810842593399999</v>
       </c>
       <c r="S12">
-        <v>0.01422346484468371</v>
+        <v>0.0144494405707524</v>
       </c>
       <c r="T12">
-        <v>0.01422346484468371</v>
+        <v>0.0144494405707524</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.168085872815258</v>
+        <v>0.2213483333333333</v>
       </c>
       <c r="H13">
-        <v>0.168085872815258</v>
+        <v>0.664045</v>
       </c>
       <c r="I13">
-        <v>0.1568238012675472</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="J13">
-        <v>0.1568238012675472</v>
+        <v>0.1773833402919521</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.14738265535771</v>
+        <v>3.950355666666666</v>
       </c>
       <c r="N13">
-        <v>3.14738265535771</v>
+        <v>11.851067</v>
       </c>
       <c r="O13">
-        <v>0.8518271104307078</v>
+        <v>0.8207205027925185</v>
       </c>
       <c r="P13">
-        <v>0.8518271104307078</v>
+        <v>0.8207205027925184</v>
       </c>
       <c r="Q13">
-        <v>0.529030560709405</v>
+        <v>0.8744046428905555</v>
       </c>
       <c r="R13">
-        <v>0.529030560709405</v>
+        <v>7.869641786014999</v>
       </c>
       <c r="S13">
-        <v>0.1335867654804943</v>
+        <v>0.1455821442314273</v>
       </c>
       <c r="T13">
-        <v>0.1335867654804943</v>
+        <v>0.1455821442314273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1693576666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.508073</v>
+      </c>
+      <c r="I14">
+        <v>0.1357192447080439</v>
+      </c>
+      <c r="J14">
+        <v>0.1357192447080439</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1680563333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.504169</v>
+      </c>
+      <c r="O14">
+        <v>0.03491515448966758</v>
+      </c>
+      <c r="P14">
+        <v>0.03491515448966757</v>
+      </c>
+      <c r="Q14">
+        <v>0.02846162848188889</v>
+      </c>
+      <c r="R14">
+        <v>0.256154656337</v>
+      </c>
+      <c r="S14">
+        <v>0.004738658396202351</v>
+      </c>
+      <c r="T14">
+        <v>0.00473865839620235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.1693576666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.508073</v>
+      </c>
+      <c r="I15">
+        <v>0.1357192447080439</v>
+      </c>
+      <c r="J15">
+        <v>0.1357192447080439</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3027816666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.908345</v>
+      </c>
+      <c r="O15">
+        <v>0.06290550590162643</v>
+      </c>
+      <c r="P15">
+        <v>0.06290550590162643</v>
+      </c>
+      <c r="Q15">
+        <v>0.05127839657611111</v>
+      </c>
+      <c r="R15">
+        <v>0.461505569185</v>
+      </c>
+      <c r="S15">
+        <v>0.008537487748946134</v>
+      </c>
+      <c r="T15">
+        <v>0.008537487748946134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1693576666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.508073</v>
+      </c>
+      <c r="I16">
+        <v>0.1357192447080439</v>
+      </c>
+      <c r="J16">
+        <v>0.1357192447080439</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3920839999999999</v>
+      </c>
+      <c r="N16">
+        <v>1.176252</v>
+      </c>
+      <c r="O16">
+        <v>0.08145883681618755</v>
+      </c>
+      <c r="P16">
+        <v>0.08145883681618755</v>
+      </c>
+      <c r="Q16">
+        <v>0.06640243137733332</v>
+      </c>
+      <c r="R16">
+        <v>0.5976218823959999</v>
+      </c>
+      <c r="S16">
+        <v>0.01105553180748877</v>
+      </c>
+      <c r="T16">
+        <v>0.01105553180748877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1693576666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.508073</v>
+      </c>
+      <c r="I17">
+        <v>0.1357192447080439</v>
+      </c>
+      <c r="J17">
+        <v>0.1357192447080439</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.950355666666666</v>
+      </c>
+      <c r="N17">
+        <v>11.851067</v>
+      </c>
+      <c r="O17">
+        <v>0.8207205027925185</v>
+      </c>
+      <c r="P17">
+        <v>0.8207205027925184</v>
+      </c>
+      <c r="Q17">
+        <v>0.669023018210111</v>
+      </c>
+      <c r="R17">
+        <v>6.021207163890999</v>
+      </c>
+      <c r="S17">
+        <v>0.1113875667554066</v>
+      </c>
+      <c r="T17">
+        <v>0.1113875667554066</v>
       </c>
     </row>
   </sheetData>
